--- a/Java/data/datas.xlsx
+++ b/Java/data/datas.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\s072007124Python\SRTP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8137A357-A9A2-4C56-9727-031C05FDC327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C79C9FA-5947-4B1E-9E61-0CA8CDA318DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>经济水平</t>
   </si>
@@ -50,41 +53,22 @@
   <si>
     <t>森林覆盖率</t>
   </si>
-  <si>
-    <t>碳排放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -108,18 +92,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -128,6 +105,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -140,54 +185,54 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -217,12 +262,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -261,722 +306,622 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>235951.9</v>
+        <v>9197.1</v>
       </c>
       <c r="B2">
-        <v>0.40250000000000002</v>
+        <v>0.46915875699999998</v>
       </c>
       <c r="C2">
-        <v>23417</v>
+        <v>1890</v>
       </c>
       <c r="D2">
-        <v>0.6998335</v>
+        <v>0.89100529100000003</v>
       </c>
       <c r="E2">
-        <v>80485.16</v>
+        <v>7730.66</v>
       </c>
       <c r="F2">
-        <v>0.69327510000000003</v>
+        <v>0.68875361199999996</v>
       </c>
       <c r="G2">
-        <v>15687</v>
+        <v>922</v>
       </c>
       <c r="H2">
-        <v>4214.63</v>
+        <v>41</v>
       </c>
       <c r="I2">
-        <v>42.71396</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1786.9780000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>221233.1</v>
+        <v>10598.9</v>
       </c>
       <c r="B3">
-        <v>0.41536600000000001</v>
+        <v>0.46506713</v>
       </c>
       <c r="C3">
-        <v>23270</v>
+        <v>1964</v>
       </c>
       <c r="D3">
-        <v>0.68723679999999998</v>
+        <v>0.886965377</v>
       </c>
       <c r="E3">
-        <v>78058.2</v>
+        <v>8355.49</v>
       </c>
       <c r="F3">
-        <v>0.72708680000000003</v>
+        <v>0.61553421799999997</v>
       </c>
       <c r="G3">
-        <v>15165.12</v>
+        <v>990.15</v>
       </c>
       <c r="H3">
-        <v>3887.59</v>
+        <v>50.94</v>
       </c>
       <c r="I3">
-        <v>42.71396</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1742.501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>200874.1</v>
+        <v>12878.7</v>
       </c>
       <c r="B4">
-        <v>0.42104900000000001</v>
+        <v>0.440844185</v>
       </c>
       <c r="C4">
-        <v>23116</v>
+        <v>2064</v>
       </c>
       <c r="D4">
-        <v>0.67693369999999997</v>
+        <v>0.88662790700000005</v>
       </c>
       <c r="E4">
-        <v>77032.66</v>
+        <v>9103.2999999999993</v>
       </c>
       <c r="F4">
-        <v>0.74572989999999995</v>
+        <v>0.57776081199999996</v>
       </c>
       <c r="G4">
-        <v>14104.66</v>
+        <v>1072.3800000000001</v>
       </c>
       <c r="H4">
-        <v>3515.76</v>
+        <v>61.29</v>
       </c>
       <c r="I4">
-        <v>42.71396</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1720.8150000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>180799.6</v>
+        <v>14536.9</v>
       </c>
       <c r="B5">
-        <v>0.42422900000000002</v>
+        <v>0.42756708799999998</v>
       </c>
       <c r="C5">
-        <v>22953</v>
+        <v>2141</v>
       </c>
       <c r="D5">
-        <v>0.66483680000000001</v>
+        <v>0.88603456300000005</v>
       </c>
       <c r="E5">
-        <v>75389.929999999993</v>
+        <v>9608.49</v>
       </c>
       <c r="F5">
-        <v>0.77518279999999995</v>
+        <v>0.56865438800000001</v>
       </c>
       <c r="G5">
-        <v>13105.59</v>
+        <v>1138.22</v>
       </c>
       <c r="H5">
-        <v>3104.17</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="I5">
-        <v>42.71396</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1688.471</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>165481.79999999999</v>
+        <v>15742.4</v>
       </c>
       <c r="B6">
-        <v>0.442498</v>
+        <v>0.39287529199999999</v>
       </c>
       <c r="C6">
-        <v>22769</v>
+        <v>2210</v>
       </c>
       <c r="D6">
-        <v>0.65092890000000003</v>
+        <v>0.88597285100000001</v>
       </c>
       <c r="E6">
-        <v>73215.899999999994</v>
+        <v>9759.35</v>
       </c>
       <c r="F6">
-        <v>0.78610000000000002</v>
+        <v>0.54359870300000002</v>
       </c>
       <c r="G6">
-        <v>12068</v>
+        <v>1153.3800000000001</v>
       </c>
       <c r="H6">
-        <v>2667.12</v>
+        <v>85.03</v>
       </c>
       <c r="I6">
-        <v>42.71396</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1659.731</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>152643.5</v>
+        <v>17915.400000000001</v>
       </c>
       <c r="B7">
-        <v>0.46019300000000002</v>
+        <v>0.41500050199999999</v>
       </c>
       <c r="C7">
-        <v>22635</v>
+        <v>2303</v>
       </c>
       <c r="D7">
-        <v>0.63737569999999999</v>
+        <v>0.89274858899999998</v>
       </c>
       <c r="E7">
-        <v>71339.91</v>
+        <v>10243.26</v>
       </c>
       <c r="F7">
-        <v>0.80651490000000003</v>
+        <v>0.57359863899999997</v>
       </c>
       <c r="G7">
-        <v>11888.2</v>
+        <v>1296</v>
       </c>
       <c r="H7">
-        <v>2316.13</v>
+        <v>103.71</v>
       </c>
       <c r="I7">
-        <v>42.71396</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1644.5139999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>140472.1</v>
+        <v>20009.7</v>
       </c>
       <c r="B8">
-        <v>0.46864899999999998</v>
+        <v>0.40826699100000002</v>
       </c>
       <c r="C8">
-        <v>22412</v>
+        <v>2356</v>
       </c>
       <c r="D8">
-        <v>0.62609320000000002</v>
+        <v>0.89303904899999997</v>
       </c>
       <c r="E8">
-        <v>71520.759999999995</v>
+        <v>10489.09</v>
       </c>
       <c r="F8">
-        <v>0.82123120599999999</v>
+        <v>0.58556080700000002</v>
       </c>
       <c r="G8">
-        <v>11769.9</v>
+        <v>1339.62</v>
       </c>
       <c r="H8">
-        <v>1982.1</v>
+        <v>119.75</v>
       </c>
       <c r="I8">
-        <v>42.26679</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1653.4179999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>127731.6</v>
+        <v>21305.599999999999</v>
       </c>
       <c r="B9">
-        <v>0.48236499999999999</v>
+        <v>0.38365969500000002</v>
       </c>
       <c r="C9">
-        <v>22182</v>
+        <v>2399</v>
       </c>
       <c r="D9">
-        <v>0.61319990000000002</v>
+        <v>0.89287203000000004</v>
       </c>
       <c r="E9">
-        <v>68446.070000000007</v>
+        <v>10573</v>
       </c>
       <c r="F9">
-        <v>0.84468341300000005</v>
+        <v>0.53939279299999998</v>
       </c>
       <c r="G9">
-        <v>10985.2</v>
+        <v>1353.4</v>
       </c>
       <c r="H9">
-        <v>1654.6</v>
+        <v>141.16</v>
       </c>
       <c r="I9">
-        <v>42.26679</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1557.423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>116988.6</v>
+        <v>23204.1</v>
       </c>
       <c r="B10">
-        <v>0.49458299999999999</v>
+        <v>0.35711361400000002</v>
       </c>
       <c r="C10">
-        <v>21921</v>
+        <v>2448</v>
       </c>
       <c r="D10">
-        <v>0.60325720000000005</v>
+        <v>0.89583333300000001</v>
       </c>
       <c r="E10">
-        <v>66186.75</v>
+        <v>10890.39</v>
       </c>
       <c r="F10">
-        <v>0.873658096</v>
+        <v>0.52167002299999998</v>
       </c>
       <c r="G10">
-        <v>10690.35</v>
+        <v>1410.6</v>
       </c>
       <c r="H10">
-        <v>1361.77</v>
+        <v>163.22999999999999</v>
       </c>
       <c r="I10">
-        <v>42.26679</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1515.2249999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>99949</v>
+        <v>25269.8</v>
       </c>
       <c r="B11">
-        <v>0.49850800000000001</v>
+        <v>0.34164496799999999</v>
       </c>
       <c r="C11">
-        <v>21576</v>
+        <v>2467</v>
       </c>
       <c r="D11">
-        <v>0.59051719999999996</v>
+        <v>0.89298743400000002</v>
       </c>
       <c r="E11">
-        <v>62296.25</v>
+        <v>10639.86</v>
       </c>
       <c r="F11">
-        <v>0.82719392999999997</v>
+        <v>0.46013575400000001</v>
       </c>
       <c r="G11">
-        <v>9759</v>
+        <v>1369.03</v>
       </c>
       <c r="H11">
-        <v>1090.21</v>
+        <v>183.3</v>
       </c>
       <c r="I11">
-        <v>42.26679</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1417.885</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>83912.5</v>
+        <v>26887</v>
       </c>
       <c r="B12">
-        <v>0.49638700000000002</v>
+        <v>0.31274221699999999</v>
       </c>
       <c r="C12">
-        <v>21427</v>
+        <v>2458</v>
       </c>
       <c r="D12">
-        <v>0.55710090000000001</v>
+        <v>0.885272579</v>
       </c>
       <c r="E12">
-        <v>58323.88</v>
+        <v>10930.53</v>
       </c>
       <c r="F12">
-        <v>0.89587232999999999</v>
+        <v>0.43256182500000001</v>
       </c>
       <c r="G12">
-        <v>8567.7000000000007</v>
+        <v>1406</v>
       </c>
       <c r="H12">
-        <v>835.32</v>
+        <v>208.65</v>
       </c>
       <c r="I12">
-        <v>42.26679</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1284.67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>76284.7</v>
+        <v>29887</v>
       </c>
       <c r="B13">
-        <v>0.51089899999999999</v>
+        <v>0.28675343800000003</v>
       </c>
       <c r="C13">
-        <v>21250</v>
+        <v>2467</v>
       </c>
       <c r="D13">
-        <v>0.54583530000000002</v>
+        <v>0.89014998000000001</v>
       </c>
       <c r="E13">
-        <v>55361.53</v>
+        <v>11241.73</v>
       </c>
       <c r="F13">
-        <v>0.91432910000000001</v>
+        <v>0.41146869699999999</v>
       </c>
       <c r="G13">
-        <v>8106.83</v>
+        <v>1486.02</v>
       </c>
       <c r="H13">
-        <v>644.33000000000004</v>
+        <v>242.66</v>
       </c>
       <c r="I13">
-        <v>41.710549999999998</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1229.915</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>65448.7</v>
+        <v>32925</v>
       </c>
       <c r="B14">
-        <v>0.51444000000000001</v>
+        <v>0.28932118499999998</v>
       </c>
       <c r="C14">
-        <v>21060</v>
+        <v>2466</v>
       </c>
       <c r="D14">
-        <v>0.53447290000000003</v>
+        <v>0.89091646400000002</v>
       </c>
       <c r="E14">
-        <v>50974.3</v>
+        <v>11381.85</v>
       </c>
       <c r="F14">
-        <v>0.94202750000000002</v>
+        <v>0.40220526499999998</v>
       </c>
       <c r="G14">
-        <v>7640.49</v>
+        <v>1526.77</v>
       </c>
       <c r="H14">
-        <v>528.78</v>
+        <v>274.38</v>
       </c>
       <c r="I14">
-        <v>41.710549999999998</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1166.472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>53642.7</v>
+        <v>36011.800000000003</v>
       </c>
       <c r="B15">
-        <v>0.51953400000000005</v>
+        <v>0.28770569600000001</v>
       </c>
       <c r="C15">
-        <v>20802</v>
+        <v>2475</v>
       </c>
       <c r="D15">
-        <v>0.52148830000000002</v>
+        <v>0.89131313099999998</v>
       </c>
       <c r="E15">
-        <v>46310.28</v>
+        <v>11453.73</v>
       </c>
       <c r="F15">
-        <v>0.94440630000000003</v>
+        <v>0.385954619</v>
       </c>
       <c r="G15">
-        <v>6717.84</v>
+        <v>1566.66</v>
       </c>
       <c r="H15">
-        <v>416.14</v>
+        <v>302.14</v>
       </c>
       <c r="I15">
-        <v>41.710549999999998</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1072.2149999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>46022.6</v>
+        <v>37987.599999999999</v>
       </c>
       <c r="B16">
-        <v>0.51496699999999995</v>
+        <v>0.268340195</v>
       </c>
       <c r="C16">
-        <v>20589</v>
+        <v>2481</v>
       </c>
       <c r="D16">
-        <v>0.5092525</v>
+        <v>0.89238210399999995</v>
       </c>
       <c r="E16">
-        <v>43435.7</v>
+        <v>11696.46</v>
       </c>
       <c r="F16">
-        <v>0.92374540000000005</v>
+        <v>0.36235579000000001</v>
       </c>
       <c r="G16">
-        <v>5848</v>
+        <v>1569</v>
       </c>
       <c r="H16">
-        <v>320.92</v>
+        <v>321.27</v>
       </c>
       <c r="I16">
-        <v>41.710549999999998</v>
-      </c>
-      <c r="J16" s="1">
-        <v>967.53129999999999</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>
--- a/Java/data/datas.xlsx
+++ b/Java/data/datas.xlsx
@@ -1,31 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\s072007124Python\SRTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C79C9FA-5947-4B1E-9E61-0CA8CDA318DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8137A357-A9A2-4C56-9727-031C05FDC327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>经济水平</t>
   </si>
@@ -53,22 +50,41 @@
   <si>
     <t>森林覆盖率</t>
   </si>
+  <si>
+    <t>碳排放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -92,11 +108,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -105,74 +128,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -185,54 +140,54 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -262,12 +217,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -306,622 +261,722 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>9197.1</v>
+        <v>235951.9</v>
       </c>
       <c r="B2">
-        <v>0.46915875699999998</v>
+        <v>0.40250000000000002</v>
       </c>
       <c r="C2">
-        <v>1890</v>
+        <v>23417</v>
       </c>
       <c r="D2">
-        <v>0.89100529100000003</v>
+        <v>0.6998335</v>
       </c>
       <c r="E2">
-        <v>7730.66</v>
+        <v>80485.16</v>
       </c>
       <c r="F2">
-        <v>0.68875361199999996</v>
+        <v>0.69327510000000003</v>
       </c>
       <c r="G2">
-        <v>922</v>
+        <v>15687</v>
       </c>
       <c r="H2">
-        <v>41</v>
+        <v>4214.63</v>
       </c>
       <c r="I2">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42.71396</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1786.9780000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10598.9</v>
+        <v>221233.1</v>
       </c>
       <c r="B3">
-        <v>0.46506713</v>
+        <v>0.41536600000000001</v>
       </c>
       <c r="C3">
-        <v>1964</v>
+        <v>23270</v>
       </c>
       <c r="D3">
-        <v>0.886965377</v>
+        <v>0.68723679999999998</v>
       </c>
       <c r="E3">
-        <v>8355.49</v>
+        <v>78058.2</v>
       </c>
       <c r="F3">
-        <v>0.61553421799999997</v>
+        <v>0.72708680000000003</v>
       </c>
       <c r="G3">
-        <v>990.15</v>
+        <v>15165.12</v>
       </c>
       <c r="H3">
-        <v>50.94</v>
+        <v>3887.59</v>
       </c>
       <c r="I3">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42.71396</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1742.501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>12878.7</v>
+        <v>200874.1</v>
       </c>
       <c r="B4">
-        <v>0.440844185</v>
+        <v>0.42104900000000001</v>
       </c>
       <c r="C4">
-        <v>2064</v>
+        <v>23116</v>
       </c>
       <c r="D4">
-        <v>0.88662790700000005</v>
+        <v>0.67693369999999997</v>
       </c>
       <c r="E4">
-        <v>9103.2999999999993</v>
+        <v>77032.66</v>
       </c>
       <c r="F4">
-        <v>0.57776081199999996</v>
+        <v>0.74572989999999995</v>
       </c>
       <c r="G4">
-        <v>1072.3800000000001</v>
+        <v>14104.66</v>
       </c>
       <c r="H4">
-        <v>61.29</v>
+        <v>3515.76</v>
       </c>
       <c r="I4">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42.71396</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1720.8150000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>14536.9</v>
+        <v>180799.6</v>
       </c>
       <c r="B5">
-        <v>0.42756708799999998</v>
+        <v>0.42422900000000002</v>
       </c>
       <c r="C5">
-        <v>2141</v>
+        <v>22953</v>
       </c>
       <c r="D5">
-        <v>0.88603456300000005</v>
+        <v>0.66483680000000001</v>
       </c>
       <c r="E5">
-        <v>9608.49</v>
+        <v>75389.929999999993</v>
       </c>
       <c r="F5">
-        <v>0.56865438800000001</v>
+        <v>0.77518279999999995</v>
       </c>
       <c r="G5">
-        <v>1138.22</v>
+        <v>13105.59</v>
       </c>
       <c r="H5">
-        <v>72.040000000000006</v>
+        <v>3104.17</v>
       </c>
       <c r="I5">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42.71396</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1688.471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>15742.4</v>
+        <v>165481.79999999999</v>
       </c>
       <c r="B6">
-        <v>0.39287529199999999</v>
+        <v>0.442498</v>
       </c>
       <c r="C6">
-        <v>2210</v>
+        <v>22769</v>
       </c>
       <c r="D6">
-        <v>0.88597285100000001</v>
+        <v>0.65092890000000003</v>
       </c>
       <c r="E6">
-        <v>9759.35</v>
+        <v>73215.899999999994</v>
       </c>
       <c r="F6">
-        <v>0.54359870300000002</v>
+        <v>0.78610000000000002</v>
       </c>
       <c r="G6">
-        <v>1153.3800000000001</v>
+        <v>12068</v>
       </c>
       <c r="H6">
-        <v>85.03</v>
+        <v>2667.12</v>
       </c>
       <c r="I6">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42.71396</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1659.731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>17915.400000000001</v>
+        <v>152643.5</v>
       </c>
       <c r="B7">
-        <v>0.41500050199999999</v>
+        <v>0.46019300000000002</v>
       </c>
       <c r="C7">
-        <v>2303</v>
+        <v>22635</v>
       </c>
       <c r="D7">
-        <v>0.89274858899999998</v>
+        <v>0.63737569999999999</v>
       </c>
       <c r="E7">
-        <v>10243.26</v>
+        <v>71339.91</v>
       </c>
       <c r="F7">
-        <v>0.57359863899999997</v>
+        <v>0.80651490000000003</v>
       </c>
       <c r="G7">
-        <v>1296</v>
+        <v>11888.2</v>
       </c>
       <c r="H7">
-        <v>103.71</v>
+        <v>2316.13</v>
       </c>
       <c r="I7">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42.71396</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1644.5139999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20009.7</v>
+        <v>140472.1</v>
       </c>
       <c r="B8">
-        <v>0.40826699100000002</v>
+        <v>0.46864899999999998</v>
       </c>
       <c r="C8">
-        <v>2356</v>
+        <v>22412</v>
       </c>
       <c r="D8">
-        <v>0.89303904899999997</v>
+        <v>0.62609320000000002</v>
       </c>
       <c r="E8">
-        <v>10489.09</v>
+        <v>71520.759999999995</v>
       </c>
       <c r="F8">
-        <v>0.58556080700000002</v>
+        <v>0.82123120599999999</v>
       </c>
       <c r="G8">
-        <v>1339.62</v>
+        <v>11769.9</v>
       </c>
       <c r="H8">
-        <v>119.75</v>
+        <v>1982.1</v>
       </c>
       <c r="I8">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42.26679</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1653.4179999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>21305.599999999999</v>
+        <v>127731.6</v>
       </c>
       <c r="B9">
-        <v>0.38365969500000002</v>
+        <v>0.48236499999999999</v>
       </c>
       <c r="C9">
-        <v>2399</v>
+        <v>22182</v>
       </c>
       <c r="D9">
-        <v>0.89287203000000004</v>
+        <v>0.61319990000000002</v>
       </c>
       <c r="E9">
-        <v>10573</v>
+        <v>68446.070000000007</v>
       </c>
       <c r="F9">
-        <v>0.53939279299999998</v>
+        <v>0.84468341300000005</v>
       </c>
       <c r="G9">
-        <v>1353.4</v>
+        <v>10985.2</v>
       </c>
       <c r="H9">
-        <v>141.16</v>
+        <v>1654.6</v>
       </c>
       <c r="I9">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42.26679</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1557.423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>23204.1</v>
+        <v>116988.6</v>
       </c>
       <c r="B10">
-        <v>0.35711361400000002</v>
+        <v>0.49458299999999999</v>
       </c>
       <c r="C10">
-        <v>2448</v>
+        <v>21921</v>
       </c>
       <c r="D10">
-        <v>0.89583333300000001</v>
+        <v>0.60325720000000005</v>
       </c>
       <c r="E10">
-        <v>10890.39</v>
+        <v>66186.75</v>
       </c>
       <c r="F10">
-        <v>0.52167002299999998</v>
+        <v>0.873658096</v>
       </c>
       <c r="G10">
-        <v>1410.6</v>
+        <v>10690.35</v>
       </c>
       <c r="H10">
-        <v>163.22999999999999</v>
+        <v>1361.77</v>
       </c>
       <c r="I10">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42.26679</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1515.2249999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>25269.8</v>
+        <v>99949</v>
       </c>
       <c r="B11">
-        <v>0.34164496799999999</v>
+        <v>0.49850800000000001</v>
       </c>
       <c r="C11">
-        <v>2467</v>
+        <v>21576</v>
       </c>
       <c r="D11">
-        <v>0.89298743400000002</v>
+        <v>0.59051719999999996</v>
       </c>
       <c r="E11">
-        <v>10639.86</v>
+        <v>62296.25</v>
       </c>
       <c r="F11">
-        <v>0.46013575400000001</v>
+        <v>0.82719392999999997</v>
       </c>
       <c r="G11">
-        <v>1369.03</v>
+        <v>9759</v>
       </c>
       <c r="H11">
-        <v>183.3</v>
+        <v>1090.21</v>
       </c>
       <c r="I11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42.26679</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1417.885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>26887</v>
+        <v>83912.5</v>
       </c>
       <c r="B12">
-        <v>0.31274221699999999</v>
+        <v>0.49638700000000002</v>
       </c>
       <c r="C12">
-        <v>2458</v>
+        <v>21427</v>
       </c>
       <c r="D12">
-        <v>0.885272579</v>
+        <v>0.55710090000000001</v>
       </c>
       <c r="E12">
-        <v>10930.53</v>
+        <v>58323.88</v>
       </c>
       <c r="F12">
-        <v>0.43256182500000001</v>
+        <v>0.89587232999999999</v>
       </c>
       <c r="G12">
-        <v>1406</v>
+        <v>8567.7000000000007</v>
       </c>
       <c r="H12">
-        <v>208.65</v>
+        <v>835.32</v>
       </c>
       <c r="I12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42.26679</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1284.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>29887</v>
+        <v>76284.7</v>
       </c>
       <c r="B13">
-        <v>0.28675343800000003</v>
+        <v>0.51089899999999999</v>
       </c>
       <c r="C13">
-        <v>2467</v>
+        <v>21250</v>
       </c>
       <c r="D13">
-        <v>0.89014998000000001</v>
+        <v>0.54583530000000002</v>
       </c>
       <c r="E13">
-        <v>11241.73</v>
+        <v>55361.53</v>
       </c>
       <c r="F13">
-        <v>0.41146869699999999</v>
+        <v>0.91432910000000001</v>
       </c>
       <c r="G13">
-        <v>1486.02</v>
+        <v>8106.83</v>
       </c>
       <c r="H13">
-        <v>242.66</v>
+        <v>644.33000000000004</v>
       </c>
       <c r="I13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41.710549999999998</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1229.915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>32925</v>
+        <v>65448.7</v>
       </c>
       <c r="B14">
-        <v>0.28932118499999998</v>
+        <v>0.51444000000000001</v>
       </c>
       <c r="C14">
-        <v>2466</v>
+        <v>21060</v>
       </c>
       <c r="D14">
-        <v>0.89091646400000002</v>
+        <v>0.53447290000000003</v>
       </c>
       <c r="E14">
-        <v>11381.85</v>
+        <v>50974.3</v>
       </c>
       <c r="F14">
-        <v>0.40220526499999998</v>
+        <v>0.94202750000000002</v>
       </c>
       <c r="G14">
-        <v>1526.77</v>
+        <v>7640.49</v>
       </c>
       <c r="H14">
-        <v>274.38</v>
+        <v>528.78</v>
       </c>
       <c r="I14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41.710549999999998</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1166.472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>36011.800000000003</v>
+        <v>53642.7</v>
       </c>
       <c r="B15">
-        <v>0.28770569600000001</v>
+        <v>0.51953400000000005</v>
       </c>
       <c r="C15">
-        <v>2475</v>
+        <v>20802</v>
       </c>
       <c r="D15">
-        <v>0.89131313099999998</v>
+        <v>0.52148830000000002</v>
       </c>
       <c r="E15">
-        <v>11453.73</v>
+        <v>46310.28</v>
       </c>
       <c r="F15">
-        <v>0.385954619</v>
+        <v>0.94440630000000003</v>
       </c>
       <c r="G15">
-        <v>1566.66</v>
+        <v>6717.84</v>
       </c>
       <c r="H15">
-        <v>302.14</v>
+        <v>416.14</v>
       </c>
       <c r="I15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41.710549999999998</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1072.2149999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>37987.599999999999</v>
+        <v>46022.6</v>
       </c>
       <c r="B16">
-        <v>0.268340195</v>
+        <v>0.51496699999999995</v>
       </c>
       <c r="C16">
-        <v>2481</v>
+        <v>20589</v>
       </c>
       <c r="D16">
-        <v>0.89238210399999995</v>
+        <v>0.5092525</v>
       </c>
       <c r="E16">
-        <v>11696.46</v>
+        <v>43435.7</v>
       </c>
       <c r="F16">
-        <v>0.36235579000000001</v>
+        <v>0.92374540000000005</v>
       </c>
       <c r="G16">
-        <v>1569</v>
+        <v>5848</v>
       </c>
       <c r="H16">
-        <v>321.27</v>
+        <v>320.92</v>
       </c>
       <c r="I16">
-        <v>14</v>
+        <v>41.710549999999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>967.53129999999999</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>